--- a/data/trans_orig/P14C25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4219A984-0C6F-4B90-A3A3-A4AB7788B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF84818A-630D-4667-91C6-B81BFECA7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B632B880-13B3-4C95-9CEA-1E8B2C8F3542}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53E471FE-BD96-40F7-9F5D-72E1F06FA12B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>81,41%</t>
   </si>
   <si>
-    <t>46,89%</t>
+    <t>43,1%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>65,59%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>71,82%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>53,11%</t>
+    <t>56,9%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -152,61 +152,61 @@
     <t>50,52%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>35,01%</t>
+    <t>35,39%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -215,7 +215,7 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>24,15%</t>
+    <t>22,17%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,61 +248,61 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>22,31%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -311,7 +311,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>11,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC1AC3-95AA-4E97-ACCE-1967EB599D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F55AAAB-1AC1-4310-89D1-FA5C1B3F139D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF84818A-630D-4667-91C6-B81BFECA7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BCCE2A6-00CB-4575-A0A8-8CEC0D2AE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53E471FE-BD96-40F7-9F5D-72E1F06FA12B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90CC9E95-45B2-4A2C-B9A9-33768B949F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
-    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2015 (Tasa respuesta: 0,88%)</t>
+    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2016 (Tasa respuesta: 0,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>81,41%</t>
   </si>
   <si>
-    <t>43,1%</t>
+    <t>51,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>65,59%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>71,82%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,9%</t>
+    <t>48,1%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
   </si>
   <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -152,61 +152,61 @@
     <t>50,52%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>35,39%</t>
+    <t>38,55%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -215,7 +215,7 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>22,17%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,61 +248,61 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>23,01%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -311,7 +311,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,88%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F55AAAB-1AC1-4310-89D1-FA5C1B3F139D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C76B2B7-C252-4438-A9B6-E3B7C65B2FA5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
